--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R048cfe063d2c4458"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rfb7f02aeb17e4153"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rfb7f02aeb17e4153"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R63f53e4d847b46b7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R63f53e4d847b46b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rb6eb12665875441a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rb6eb12665875441a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R261f165191764841"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R261f165191764841"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rcfccb21db37943b7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rcfccb21db37943b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rceda602887e04568"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rceda602887e04568"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rab1e8f8138de4b07"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rab1e8f8138de4b07"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rf63941508dcb4514"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rf63941508dcb4514"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R24ad3e76d9984f5a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R24ad3e76d9984f5a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ra63206a090364756"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ra63206a090364756"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rcdd79ad0b1a74003"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,12 +29,12 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rcdd79ad0b1a74003"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R2ad439bd59da4274"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,12 +29,12 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/014_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R2ad439bd59da4274"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Refabc75717ce4a6b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
